--- a/Fichas tecnicas/Comparacion_de_precios Hardware.xlsx
+++ b/Fichas tecnicas/Comparacion_de_precios Hardware.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://soysena-my.sharepoint.com/personal/fabian_dsanchez_soy_sena_edu_co/Documents/Documentos/Analisis y Desarrollo de Software/ProyectoBrisasGems/Fichas tecnicas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="244" documentId="11_CD5DEC4232EBC2351D66475A2715D44980B26BE7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61E4DE73-D47D-4C3A-8EB6-069E5A382158}"/>
+  <xr:revisionPtr revIDLastSave="277" documentId="11_CD5DEC4232EBC2351D66475A2715D44980B26BE7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{995FD8F8-A0D6-470A-ACB1-B83ED6E4CE4F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="- AYUDA -" sheetId="5" r:id="rId1"/>
     <sheet name="Precios " sheetId="10" r:id="rId2"/>
-    <sheet name="Precios  (2)" sheetId="11" r:id="rId3"/>
-    <sheet name="Soporte" sheetId="8" state="hidden" r:id="rId4"/>
+    <sheet name="Soporte" sheetId="8" state="hidden" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
   <si>
     <t>Ayuda</t>
   </si>
@@ -62,15 +83,6 @@
     <t>CANTIDAD</t>
   </si>
   <si>
-    <t>PROVEEDOR 1</t>
-  </si>
-  <si>
-    <t>PROVEEDOR 2</t>
-  </si>
-  <si>
-    <t>PROVEEDOR 3</t>
-  </si>
-  <si>
     <t>PROVEEDOR 4</t>
   </si>
   <si>
@@ -117,15 +129,6 @@
   </si>
   <si>
     <t>COSTO DE ENVÍO</t>
-  </si>
-  <si>
-    <t>$ 7.055</t>
-  </si>
-  <si>
-    <t>$287.497</t>
-  </si>
-  <si>
-    <t>$295.39</t>
   </si>
   <si>
     <t>FORMAS DE PAGO</t>
@@ -261,11 +264,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="8"/>
       <color theme="1"/>
@@ -377,6 +381,7 @@
       <sz val="14"/>
       <color theme="1" tint="0.34998626667073579"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -384,6 +389,7 @@
       <sz val="14"/>
       <color theme="1" tint="0.34998626667073579"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -395,6 +401,7 @@
       <sz val="8"/>
       <color rgb="FF595959"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -407,10 +414,17 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -981,10 +995,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1182,16 +1197,12 @@
     <xf numFmtId="4" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1213,6 +1224,10 @@
     <xf numFmtId="164" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1235,12 +1250,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Moneda" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="31">
     <dxf>
       <font>
         <b/>
@@ -1601,778 +1617,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF66"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF66"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF66"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF66"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF66"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF66"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFFF66"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF66"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF66"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF66"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF8745EC"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF8745EC"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF8F3FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2857,9 +2101,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Estilo de tabla 1" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de tabla 1" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="57"/>
-      <tableStyleElement type="headerRow" dxfId="56"/>
-      <tableStyleElement type="totalRow" dxfId="55"/>
+      <tableStyleElement type="wholeTable" dxfId="30"/>
+      <tableStyleElement type="headerRow" dxfId="29"/>
+      <tableStyleElement type="totalRow" dxfId="28"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3741,165 +2985,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1150725</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>40957</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="228600" y="190500"/>
-          <a:ext cx="7675350" cy="736282"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Comparación</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> de precios entre proveedores</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2400" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1220801</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>155780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1171166</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>613297</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11961826" y="346280"/>
-          <a:ext cx="3012123" cy="457517"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="F8F3FF"/>
-              </a:solidFill>
-              <a:latin typeface="Arial Rounded MT Bold" panose="020F0704030504030204" pitchFamily="34" charset="77"/>
-              <a:ea typeface="Apple Symbols" panose="02000000000000000000" pitchFamily="2" charset="-79"/>
-              <a:cs typeface="Apple Symbols" panose="02000000000000000000" pitchFamily="2" charset="-79"/>
-            </a:rPr>
-            <a:t>Larause</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -3923,345 +3008,74 @@
       <sheetName val="Tarjeta de video nosotros"/>
       <sheetName val="Procesador Nosotros"/>
       <sheetName val="Teclado nosostros "/>
-      <sheetName val="Muse nosotros"/>
-      <sheetName val="software licencia"/>
-      <sheetName val="licencia visual"/>
       <sheetName val="windows 11 licencia"/>
-      <sheetName val="licencia SQL"/>
+      <sheetName val="Hosting"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>Combo Dell Wireless Km3322w Teclado + Mouse</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>Portatil Lenovo Ryzen 7 5825u Ram 24gb Solido 512gb Fhd</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="H9">
-            <v>4049310</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>Monitor SAMSUNG Gamer 32" Pulgadas AG320 Plano Negro</v>
-          </cell>
-          <cell r="H8">
-            <v>2408781</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="H9">
-            <v>2877441</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="H10">
-            <v>3302044.77</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10">
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>Disco Duro Interno Western Digital WD5000LPZX 2.5in 500gb Hdd Sata Iii Plata</v>
-          </cell>
-          <cell r="H8">
-            <v>124652.61</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="H9">
-            <v>516840</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="H10">
-            <v>435810</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="11">
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>ZimaBoard 832 Router de servidor de una sola placa X86 Computadora de una sola placa Almacenamiento en la red en la nube personal Servidor multimedia 4K Puerta de enlace Gigabit dual - PCIe x4 SATA</v>
-          </cell>
-          <cell r="H8">
-            <v>1956318.24</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="H9">
-            <v>8431500</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="H10">
-            <v>5255997.8100000005</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12">
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>Memoria Ram Samsung 8gb Ddr3 1600mhz Portatil Laptop</v>
-          </cell>
-          <cell r="H8">
-            <v>110376</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="H9">
-            <v>1778280</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="H10">
-            <v>1778280</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="13">
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>Tarjeta De Video G210 1gb Ddr3 Hdmi Pci E</v>
-          </cell>
-          <cell r="H8">
-            <v>416100</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="H9">
-            <v>1543950</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="H10">
-            <v>941700</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>Procesador Intel Core I5 14600k 3.5 Ghz Socket 1700</v>
-          </cell>
-          <cell r="G8">
-            <v>926.53846153846155</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="H9">
-            <v>4150049.9999999995</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="H10">
-            <v>5753130</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="8">
-          <cell r="H8">
-            <v>240681</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="H9">
-            <v>197100</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="H10">
-            <v>100740</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="16">
-        <row r="8">
-          <cell r="H8">
-            <v>206801.7</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="H9">
-            <v>144321</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="H10">
-            <v>197100</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="17">
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>MICROSOFT WINDOWS 10 PROFESIONAL A 64 BITS OEM FQC-08981</v>
-          </cell>
-          <cell r="H8">
-            <v>1007400</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="H9">
-            <v>1401600</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="H10">
-            <v>1949100</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="18">
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>Licencia Visual Studio 2022 Enterprise</v>
-          </cell>
-          <cell r="H8">
-            <v>1705442.79</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="H9">
-            <v>1705442.79</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="H10">
-            <v>1705442.79</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="19">
-        <row r="8">
-          <cell r="D8" t="str">
-            <v xml:space="preserve">Licencia Windows 11 Pro ESD Vitalicia
-</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="H10">
-            <v>1177199.46</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="20">
-        <row r="8">
-          <cell r="D8" t="str">
-            <v>Licencia de dispositivo SQL Server 2022 - 1 CAL</v>
-          </cell>
-          <cell r="H8">
-            <v>580636.89</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="H9">
-            <v>2832984</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Comparación_precios2" displayName="Comparación_precios2" ref="B8:M26" totalsRowCount="1" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Comparación_precios2" displayName="Comparación_precios2" ref="B8:M26" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26">
   <tableColumns count="12">
-    <tableColumn id="9" xr3:uid="{77728322-F0D3-420C-9593-60EA97704E0E}" name="Tipo" dataDxfId="52"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PRODUCTO" totalsRowLabel="Total" dataDxfId="51" totalsRowDxfId="10">
+    <tableColumn id="9" xr3:uid="{77728322-F0D3-420C-9593-60EA97704E0E}" name="Tipo" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PRODUCTO" totalsRowLabel="Total" dataDxfId="24" totalsRowDxfId="10">
       <calculatedColumnFormula>'[1]Monitor Admin'!$D$8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CANTIDAD" dataDxfId="50" totalsRowDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PROVEEDOR 1 (Amazon)" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="8">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CANTIDAD" dataDxfId="23" totalsRowDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PROVEEDOR 1 (Amazon)" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="8">
       <calculatedColumnFormula>'[1]Monitor Admin'!$H$8</calculatedColumnFormula>
       <totalsRowFormula>ROUND(SUMPRODUCT(Comparación_precios2[[CANTIDAD]:[CANTIDAD]],Comparación_precios2[PROVEEDOR 1 (Amazon)]),2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PROVEEDOR 2 (Mercado libre)" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="7">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PROVEEDOR 2 (Mercado libre)" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="7">
       <calculatedColumnFormula>'[1]Monitor Admin'!$H$9</calculatedColumnFormula>
       <totalsRowFormula>ROUND(SUMPRODUCT(Comparación_precios2[[CANTIDAD]:[CANTIDAD]],Comparación_precios2[PROVEEDOR 2 (Mercado libre)]),2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PROVEEDOR 3 (otros)" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="6">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PROVEEDOR 3 (otros)" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="6">
       <calculatedColumnFormula>'[1]Monitor Admin'!$H$10</calculatedColumnFormula>
       <totalsRowFormula>ROUND(SUMPRODUCT(Comparación_precios2[[CANTIDAD]:[CANTIDAD]],Comparación_precios2[PROVEEDOR 3 (otros)]),2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="PROVEEDOR 4" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="5">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="PROVEEDOR 4" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="5">
       <totalsRowFormula>ROUND(SUMPRODUCT(Comparación_precios2[[CANTIDAD]:[CANTIDAD]],Comparación_precios2[PROVEEDOR 4]),2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="PROVEEDOR 5" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="PROVEEDOR 5" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="4">
       <totalsRowFormula>ROUND(SUMPRODUCT(Comparación_precios2[[CANTIDAD]:[CANTIDAD]],Comparación_precios2[PROVEEDOR 5]),2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="PROVEEDOR 6" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="3">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="PROVEEDOR 6" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="3">
       <totalsRowFormula>ROUND(SUMPRODUCT(Comparación_precios2[[CANTIDAD]:[CANTIDAD]],Comparación_precios2[PROVEEDOR 6]),2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="PRECIO MÁS BAJO" dataDxfId="43" totalsRowDxfId="2">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="PRECIO MÁS BAJO" dataDxfId="16" totalsRowDxfId="2">
       <calculatedColumnFormula>MIN(Comparación_precios2[[#This Row],[PROVEEDOR 1 (Amazon)]:[PROVEEDOR 6]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="PRECIO PROMEDIO" dataDxfId="42" totalsRowDxfId="1">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="PRECIO PROMEDIO" dataDxfId="15" totalsRowDxfId="1">
       <calculatedColumnFormula>IFERROR(AVERAGE(Comparación_precios2[[#This Row],[PROVEEDOR 1 (Amazon)]:[PROVEEDOR 6]]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="PRECIO MÁS ALTO" dataDxfId="41" totalsRowDxfId="0">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="PRECIO MÁS ALTO" dataDxfId="14" totalsRowDxfId="0">
       <calculatedColumnFormula>MAX(Comparación_precios2[[#This Row],[PROVEEDOR 1 (Amazon)]:[PROVEEDOR 6]])</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="Estilo de tabla 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Comparación_precios24" displayName="Comparación_precios24" ref="B8:L25" totalsRowCount="1" headerRowDxfId="40" dataDxfId="39">
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PRODUCTO" totalsRowLabel="Total" dataDxfId="38" totalsRowDxfId="37">
-      <calculatedColumnFormula>'[1]Monitor Admin'!$D$8</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="CANTIDAD" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PROVEEDOR 1" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="33">
-      <calculatedColumnFormula>'[1]Monitor Nosotros'!$H$8*3</calculatedColumnFormula>
-      <totalsRowFormula>ROUND(SUMPRODUCT(Comparación_precios24[[CANTIDAD]:[CANTIDAD]],Comparación_precios24[PROVEEDOR 1]),2)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="PROVEEDOR 2" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="31">
-      <calculatedColumnFormula>'[1]Portatil Nosotros'!$H$9*3</calculatedColumnFormula>
-      <totalsRowFormula>ROUND(SUMPRODUCT(Comparación_precios24[[CANTIDAD]:[CANTIDAD]],Comparación_precios24[PROVEEDOR 2]),2)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="PROVEEDOR 3" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="29">
-      <calculatedColumnFormula>'[1]Monitor Nosotros'!$H$10 *3</calculatedColumnFormula>
-      <totalsRowFormula>ROUND(SUMPRODUCT(Comparación_precios24[[CANTIDAD]:[CANTIDAD]],Comparación_precios24[PROVEEDOR 3]),2)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="PROVEEDOR 4" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="27">
-      <totalsRowFormula>ROUND(SUMPRODUCT(Comparación_precios24[[CANTIDAD]:[CANTIDAD]],Comparación_precios24[PROVEEDOR 4]),2)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="PROVEEDOR 5" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="25">
-      <totalsRowFormula>ROUND(SUMPRODUCT(Comparación_precios24[[CANTIDAD]:[CANTIDAD]],Comparación_precios24[PROVEEDOR 5]),2)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="PROVEEDOR 6" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="23">
-      <totalsRowFormula>ROUND(SUMPRODUCT(Comparación_precios24[[CANTIDAD]:[CANTIDAD]],Comparación_precios24[PROVEEDOR 6]),2)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="PRECIO MÁS BAJO" dataDxfId="22" totalsRowDxfId="21">
-      <calculatedColumnFormula>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="PRECIO PROMEDIO" dataDxfId="20" totalsRowDxfId="19">
-      <calculatedColumnFormula>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="PRECIO MÁS ALTO" dataDxfId="18" totalsRowDxfId="17">
-      <calculatedColumnFormula>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabla 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4607,8 +3421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:N43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75"/>
@@ -4677,8 +3491,8 @@
       <c r="L7" s="84"/>
     </row>
     <row r="8" spans="2:14" s="6" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="B8" s="80" t="s">
-        <v>46</v>
+      <c r="B8" s="78" t="s">
+        <v>40</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>4</v>
@@ -4687,39 +3501,39 @@
         <v>5</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="L8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="M8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="9" spans="2:14" s="7" customFormat="1" ht="132" thickBot="1">
-      <c r="B9" s="78" t="s">
-        <v>47</v>
+      <c r="B9" s="76" t="s">
+        <v>41</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D9" s="60">
         <v>1</v>
@@ -4727,15 +3541,15 @@
       <c r="E9" s="42">
         <v>473166.08000000002</v>
       </c>
-      <c r="F9" s="81" t="s">
-        <v>67</v>
+      <c r="F9" s="79" t="s">
+        <v>61</v>
       </c>
       <c r="G9" s="61">
         <v>670000</v>
       </c>
       <c r="H9" s="61"/>
       <c r="I9" s="61"/>
-      <c r="J9" s="75"/>
+      <c r="J9" s="73"/>
       <c r="K9" s="62">
         <f>MIN(Comparación_precios2[[#This Row],[PROVEEDOR 1 (Amazon)]:[PROVEEDOR 6]])</f>
         <v>473166.08000000002</v>
@@ -4750,11 +3564,11 @@
       </c>
     </row>
     <row r="10" spans="2:14" s="7" customFormat="1" ht="57" thickBot="1">
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="57" t="s">
         <v>48</v>
-      </c>
-      <c r="C10" s="57" t="s">
-        <v>54</v>
       </c>
       <c r="D10" s="32">
         <v>1</v>
@@ -4785,11 +3599,11 @@
       </c>
     </row>
     <row r="11" spans="2:14" s="7" customFormat="1" ht="75.75" thickBot="1">
-      <c r="B11" s="78" t="s">
-        <v>49</v>
+      <c r="B11" s="76" t="s">
+        <v>43</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D11" s="32">
         <v>1</v>
@@ -4820,11 +3634,11 @@
       </c>
     </row>
     <row r="12" spans="2:14" s="7" customFormat="1" ht="94.5" thickBot="1">
-      <c r="B12" s="78" t="s">
-        <v>50</v>
+      <c r="B12" s="76" t="s">
+        <v>44</v>
       </c>
       <c r="C12" s="57" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D12" s="32">
         <v>1</v>
@@ -4855,11 +3669,11 @@
       </c>
     </row>
     <row r="13" spans="2:14" s="7" customFormat="1" ht="57" thickBot="1">
-      <c r="B13" s="78" t="s">
-        <v>51</v>
+      <c r="B13" s="76" t="s">
+        <v>45</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D13" s="32">
         <v>1</v>
@@ -4890,11 +3704,11 @@
       </c>
     </row>
     <row r="14" spans="2:14" s="7" customFormat="1" ht="57" thickBot="1">
-      <c r="B14" s="78" t="s">
-        <v>52</v>
+      <c r="B14" s="76" t="s">
+        <v>46</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D14" s="32">
         <v>1</v>
@@ -4925,11 +3739,11 @@
       </c>
     </row>
     <row r="15" spans="2:14" s="2" customFormat="1" ht="57" thickBot="1">
-      <c r="B15" s="78" t="s">
-        <v>53</v>
+      <c r="B15" s="76" t="s">
+        <v>47</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D15" s="32">
         <v>1</v>
@@ -4960,11 +3774,11 @@
       </c>
     </row>
     <row r="16" spans="2:14" s="2" customFormat="1" ht="75.75" thickBot="1">
-      <c r="B16" s="79" t="s">
-        <v>59</v>
+      <c r="B16" s="77" t="s">
+        <v>53</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D16" s="46">
         <v>1</v>
@@ -4995,11 +3809,11 @@
       </c>
     </row>
     <row r="17" spans="2:13" s="2" customFormat="1" ht="38.25" thickBot="1">
-      <c r="B17" s="79" t="s">
-        <v>63</v>
+      <c r="B17" s="77" t="s">
+        <v>57</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D17" s="46">
         <v>1</v>
@@ -5011,7 +3825,7 @@
         <v>99990</v>
       </c>
       <c r="G17" s="58" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H17" s="45"/>
       <c r="I17" s="45"/>
@@ -5030,7 +3844,7 @@
       </c>
     </row>
     <row r="18" spans="2:13" s="2" customFormat="1" ht="19.5" thickBot="1">
-      <c r="B18" s="79"/>
+      <c r="B18" s="77"/>
       <c r="C18" s="58"/>
       <c r="D18" s="46"/>
       <c r="E18" s="45"/>
@@ -5053,7 +3867,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" s="2" customFormat="1" ht="19.5" thickBot="1">
-      <c r="B19" s="76"/>
+      <c r="B19" s="74"/>
       <c r="C19" s="42"/>
       <c r="D19" s="43"/>
       <c r="E19" s="44"/>
@@ -5076,7 +3890,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" s="2" customFormat="1" ht="19.5" thickBot="1">
-      <c r="B20" s="76"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="42"/>
       <c r="D20" s="43"/>
       <c r="E20" s="44"/>
@@ -5099,7 +3913,7 @@
       </c>
     </row>
     <row r="21" spans="2:13" s="2" customFormat="1" ht="19.5" thickBot="1">
-      <c r="B21" s="76"/>
+      <c r="B21" s="74"/>
       <c r="C21" s="42"/>
       <c r="D21" s="43"/>
       <c r="E21" s="44"/>
@@ -5122,7 +3936,7 @@
       </c>
     </row>
     <row r="22" spans="2:13" s="2" customFormat="1" ht="19.5" thickBot="1">
-      <c r="B22" s="76"/>
+      <c r="B22" s="74"/>
       <c r="C22" s="42"/>
       <c r="D22" s="43"/>
       <c r="E22" s="44"/>
@@ -5145,7 +3959,7 @@
       </c>
     </row>
     <row r="23" spans="2:13" s="2" customFormat="1" ht="19.5" thickBot="1">
-      <c r="B23" s="76"/>
+      <c r="B23" s="74"/>
       <c r="C23" s="42"/>
       <c r="D23" s="43"/>
       <c r="E23" s="44"/>
@@ -5168,7 +3982,7 @@
       </c>
     </row>
     <row r="24" spans="2:13" s="2" customFormat="1" ht="19.5" thickBot="1">
-      <c r="B24" s="76"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="42"/>
       <c r="D24" s="43"/>
       <c r="E24" s="44"/>
@@ -5191,7 +4005,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" s="2" customFormat="1" ht="19.5" thickBot="1">
-      <c r="B25" s="77"/>
+      <c r="B25" s="75"/>
       <c r="C25" s="42"/>
       <c r="D25" s="43"/>
       <c r="E25" s="44"/>
@@ -5216,7 +4030,7 @@
     <row r="26" spans="2:13" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="B26"/>
       <c r="C26" s="33" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D26" s="33"/>
       <c r="E26" s="34">
@@ -5275,7 +4089,7 @@
     </row>
     <row r="29" spans="2:13" s="2" customFormat="1" ht="33.6" customHeight="1">
       <c r="B29" s="85" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C29" s="86"/>
       <c r="D29" s="21"/>
@@ -5286,47 +4100,47 @@
     </row>
     <row r="30" spans="2:13" s="2" customFormat="1" ht="25.9" customHeight="1">
       <c r="B30" s="87" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C30" s="88"/>
       <c r="D30" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="H30" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="73" t="s">
+      <c r="I30" s="15" t="s">
         <v>20</v>
-      </c>
-      <c r="G30" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="31" spans="2:13" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="B31" s="87" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C31" s="88"/>
       <c r="D31" s="65">
         <v>0</v>
       </c>
-      <c r="E31" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="74">
+      <c r="E31" s="80">
         <v>0</v>
       </c>
-      <c r="H31" s="22" t="s">
-        <v>27</v>
+      <c r="F31" s="22">
+        <v>0</v>
+      </c>
+      <c r="G31" s="81">
+        <v>0</v>
+      </c>
+      <c r="H31" s="22">
+        <v>0</v>
       </c>
       <c r="I31" s="22">
         <v>0</v>
@@ -5334,7 +4148,7 @@
     </row>
     <row r="32" spans="2:13" s="2" customFormat="1" ht="18.75">
       <c r="B32" s="87" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C32" s="88"/>
       <c r="D32" s="49"/>
@@ -5344,7 +4158,7 @@
       <c r="H32" s="23"/>
       <c r="I32" s="23"/>
     </row>
-    <row r="33" spans="2:12" s="2" customFormat="1" ht="18.75">
+    <row r="33" spans="2:14" s="2" customFormat="1" ht="18.75">
       <c r="B33" s="87"/>
       <c r="C33" s="88"/>
       <c r="D33" s="50"/>
@@ -5354,32 +4168,32 @@
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
     </row>
-    <row r="34" spans="2:12" ht="18.75">
+    <row r="34" spans="2:14" ht="18.75">
       <c r="B34" s="87"/>
       <c r="C34" s="88"/>
       <c r="D34" s="70" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E34" s="64" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F34" s="64" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G34" s="64" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H34" s="64" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I34" s="64" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="23.25">
+    <row r="35" spans="2:14" ht="23.25">
       <c r="B35" s="87"/>
       <c r="C35" s="88"/>
       <c r="D35" s="68"/>
@@ -5391,18 +4205,22 @@
       <c r="J35" s="2"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-    </row>
-    <row r="36" spans="2:12">
+      <c r="N35" s="1" cm="1">
+        <f t="array" aca="1" ref="N35" ca="1">B2:N35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14">
       <c r="J36" s="3"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:14">
       <c r="J37" s="3"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="2:12" ht="18.75">
+    <row r="38" spans="2:14" ht="18.75">
       <c r="D38" s="37"/>
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
@@ -5413,7 +4231,7 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="2:12" ht="18.75">
+    <row r="39" spans="2:14" ht="18.75">
       <c r="D39" s="37"/>
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
@@ -5421,7 +4239,7 @@
       <c r="H39" s="40"/>
       <c r="I39" s="37"/>
     </row>
-    <row r="40" spans="2:12" ht="18.75">
+    <row r="40" spans="2:14" ht="18.75">
       <c r="D40" s="37"/>
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
@@ -5429,7 +4247,7 @@
       <c r="H40" s="40"/>
       <c r="I40" s="37"/>
     </row>
-    <row r="41" spans="2:12" ht="18.75">
+    <row r="41" spans="2:14" ht="18.75">
       <c r="D41" s="37"/>
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
@@ -5437,7 +4255,7 @@
       <c r="H41" s="40"/>
       <c r="I41" s="37"/>
     </row>
-    <row r="42" spans="2:12" ht="18.75">
+    <row r="42" spans="2:14" ht="18.75">
       <c r="D42" s="37"/>
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
@@ -5445,7 +4263,7 @@
       <c r="H42" s="40"/>
       <c r="I42" s="37"/>
     </row>
-    <row r="43" spans="2:12" ht="18.75">
+    <row r="43" spans="2:14" ht="18.75">
       <c r="D43" s="37"/>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5462,12 +4280,12 @@
     <mergeCell ref="B32:C35"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:J9 E26:J26">
-    <cfRule type="expression" dxfId="16" priority="10">
+    <cfRule type="expression" dxfId="13" priority="10">
       <formula>AND(B$26=MIN($E$26:$J$26),B$26&lt;&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:J25">
-    <cfRule type="expression" dxfId="15" priority="14">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>AND(E$26=MIN($E$26:$J$26),E$26&lt;&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5481,880 +4299,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:N42"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="31.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="24.83203125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="20.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.6640625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:14" ht="15" customHeight="1"/>
-    <row r="2" spans="2:14" customFormat="1" ht="54.95" customHeight="1">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-    </row>
-    <row r="3" spans="2:14" ht="15" customHeight="1"/>
-    <row r="4" spans="2:14" ht="15" customHeight="1"/>
-    <row r="5" spans="2:14" ht="28.5">
-      <c r="B5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16"/>
-    </row>
-    <row r="6" spans="2:14" ht="29.25" thickBot="1">
-      <c r="B6" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" ht="24.75" customHeight="1" thickBot="1">
-      <c r="J7" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="83"/>
-      <c r="L7" s="84"/>
-    </row>
-    <row r="8" spans="2:14" s="6" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="B8" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" s="7" customFormat="1" ht="75.75" thickBot="1">
-      <c r="B9" s="57" t="str">
-        <f>'[1]Portatil Nosotros'!$D$8</f>
-        <v>Portatil Lenovo Ryzen 7 5825u Ram 24gb Solido 512gb Fhd</v>
-      </c>
-      <c r="C9" s="32">
-        <v>3</v>
-      </c>
-      <c r="D9" s="9">
-        <f>'[1]Monitor Nosotros'!$H$8*3</f>
-        <v>7226343</v>
-      </c>
-      <c r="E9" s="9">
-        <f>'[1]Portatil Nosotros'!$H$9*3</f>
-        <v>12147930</v>
-      </c>
-      <c r="F9" s="9">
-        <f>'[1]Monitor Nosotros'!$H$10 *3</f>
-        <v>9906134.3100000005</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="13">
-        <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>7226343</v>
-      </c>
-      <c r="K9" s="8">
-        <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>9760135.7700000014</v>
-      </c>
-      <c r="L9" s="14">
-        <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>12147930</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" s="7" customFormat="1" ht="94.5" thickBot="1">
-      <c r="B10" s="57" t="str">
-        <f>'[1]Monitor Nosotros'!$D$8</f>
-        <v>Monitor SAMSUNG Gamer 32" Pulgadas AG320 Plano Negro</v>
-      </c>
-      <c r="C10" s="32">
-        <v>3</v>
-      </c>
-      <c r="D10" s="9">
-        <f>'[1]Monitor Nosotros'!$H$8*3</f>
-        <v>7226343</v>
-      </c>
-      <c r="E10" s="9">
-        <f>'[1]Monitor Nosotros'!$H$9*3</f>
-        <v>8632323</v>
-      </c>
-      <c r="F10" s="9">
-        <f>'[1]Monitor Nosotros'!$H$10 *3</f>
-        <v>9906134.3100000005</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="13">
-        <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>7226343</v>
-      </c>
-      <c r="K10" s="8">
-        <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>8588266.7700000014</v>
-      </c>
-      <c r="L10" s="14">
-        <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>9906134.3100000005</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" s="7" customFormat="1" ht="113.25" thickBot="1">
-      <c r="B11" s="57" t="str">
-        <f>'[1] Disco mecanico Nosotros'!$D$8</f>
-        <v>Disco Duro Interno Western Digital WD5000LPZX 2.5in 500gb Hdd Sata Iii Plata</v>
-      </c>
-      <c r="C11" s="32">
-        <v>3</v>
-      </c>
-      <c r="D11" s="9">
-        <f>'[1] Disco mecanico Nosotros'!$H$8*3</f>
-        <v>373957.83</v>
-      </c>
-      <c r="E11" s="9">
-        <f>'[1] Disco mecanico Nosotros'!$H$9*3</f>
-        <v>1550520</v>
-      </c>
-      <c r="F11" s="9">
-        <f>'[1] Disco mecanico Nosotros'!$H$10*3</f>
-        <v>1307430</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="13">
-        <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>373957.83</v>
-      </c>
-      <c r="K11" s="8">
-        <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>1077302.6100000001</v>
-      </c>
-      <c r="L11" s="14">
-        <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>1550520</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" s="7" customFormat="1" ht="75.75" thickBot="1">
-      <c r="B12" s="57" t="str">
-        <f>'[1] ram nosotros'!$D$8</f>
-        <v>Memoria Ram Samsung 8gb Ddr3 1600mhz Portatil Laptop</v>
-      </c>
-      <c r="C12" s="32">
-        <v>3</v>
-      </c>
-      <c r="D12" s="9">
-        <f>'[1] ram nosotros'!$H$8*3</f>
-        <v>331128</v>
-      </c>
-      <c r="E12" s="9">
-        <f>'[1] ram nosotros'!$H$9*3</f>
-        <v>5334840</v>
-      </c>
-      <c r="F12" s="9">
-        <f>'[1] ram nosotros'!$H$10*3</f>
-        <v>5334840</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="13">
-        <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>331128</v>
-      </c>
-      <c r="K12" s="8">
-        <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>3666936</v>
-      </c>
-      <c r="L12" s="14">
-        <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>5334840</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" s="7" customFormat="1" ht="263.25" thickBot="1">
-      <c r="B13" s="57" t="str">
-        <f>'[1] Servidor Nosotros'!$D$8</f>
-        <v>ZimaBoard 832 Router de servidor de una sola placa X86 Computadora de una sola placa Almacenamiento en la red en la nube personal Servidor multimedia 4K Puerta de enlace Gigabit dual - PCIe x4 SATA</v>
-      </c>
-      <c r="C13" s="32">
-        <v>3</v>
-      </c>
-      <c r="D13" s="9">
-        <f>'[1] Servidor Nosotros'!$H$8 *3</f>
-        <v>5868954.7199999997</v>
-      </c>
-      <c r="E13" s="9">
-        <f>'[1] Servidor Nosotros'!$H$9*3</f>
-        <v>25294500</v>
-      </c>
-      <c r="F13" s="9">
-        <f>'[1] Servidor Nosotros'!$H$10*3</f>
-        <v>15767993.430000002</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="13">
-        <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>5868954.7199999997</v>
-      </c>
-      <c r="K13" s="8">
-        <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>15643816.049999999</v>
-      </c>
-      <c r="L13" s="14">
-        <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>25294500</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" s="7" customFormat="1" ht="57" thickBot="1">
-      <c r="B14" s="57" t="str">
-        <f>'[1]Tarjeta de video nosotros'!$D$8</f>
-        <v>Tarjeta De Video G210 1gb Ddr3 Hdmi Pci E</v>
-      </c>
-      <c r="C14" s="32">
-        <v>3</v>
-      </c>
-      <c r="D14" s="9">
-        <f>'[1]Tarjeta de video nosotros'!$H$8*3</f>
-        <v>1248300</v>
-      </c>
-      <c r="E14" s="9">
-        <f>'[1]Tarjeta de video nosotros'!$H$9*3</f>
-        <v>4631850</v>
-      </c>
-      <c r="F14" s="9">
-        <f>'[1]Tarjeta de video nosotros'!$H$10*3</f>
-        <v>2825100</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="27">
-        <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>1248300</v>
-      </c>
-      <c r="K14" s="28">
-        <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>2901750</v>
-      </c>
-      <c r="L14" s="29">
-        <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>4631850</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" s="2" customFormat="1" ht="75.75" thickBot="1">
-      <c r="B15" s="58" t="str">
-        <f>'[1]Procesador Nosotros'!$D$8</f>
-        <v>Procesador Intel Core I5 14600k 3.5 Ghz Socket 1700</v>
-      </c>
-      <c r="C15" s="46">
-        <v>3</v>
-      </c>
-      <c r="D15" s="45">
-        <f>'[1]Procesador Nosotros'!$G$8*3</f>
-        <v>2779.6153846153848</v>
-      </c>
-      <c r="E15" s="45">
-        <f>'[1]Procesador Nosotros'!$H$9*3</f>
-        <v>12450149.999999998</v>
-      </c>
-      <c r="F15" s="45">
-        <f>'[1]Procesador Nosotros'!$H$10*3</f>
-        <v>17259390</v>
-      </c>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="27">
-        <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>2779.6153846153848</v>
-      </c>
-      <c r="K15" s="8">
-        <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>9904106.538461538</v>
-      </c>
-      <c r="L15" s="14">
-        <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>17259390</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" s="2" customFormat="1" ht="75.75" thickBot="1">
-      <c r="B16" s="58" t="str">
-        <f>'[1]Teclado Admin'!$D$8</f>
-        <v>Combo Dell Wireless Km3322w Teclado + Mouse</v>
-      </c>
-      <c r="C16" s="46">
-        <v>3</v>
-      </c>
-      <c r="D16" s="45">
-        <f>'[1]Teclado nosostros '!$H$8*3</f>
-        <v>722043</v>
-      </c>
-      <c r="E16" s="45">
-        <f>'[1]Teclado nosostros '!$H$9*3</f>
-        <v>591300</v>
-      </c>
-      <c r="F16" s="45">
-        <f>'[1]Teclado nosostros '!$H$10*3</f>
-        <v>302220</v>
-      </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="27">
-        <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>302220</v>
-      </c>
-      <c r="K16" s="8">
-        <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>538521</v>
-      </c>
-      <c r="L16" s="14">
-        <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>722043</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1">
-      <c r="B17" s="58" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C17" s="46">
-        <v>3</v>
-      </c>
-      <c r="D17" s="45">
-        <f>'[1]Muse nosotros'!$H$8*3</f>
-        <v>620405.10000000009</v>
-      </c>
-      <c r="E17" s="45">
-        <f>'[1]Muse nosotros'!$H$9*3</f>
-        <v>432963</v>
-      </c>
-      <c r="F17" s="45">
-        <f>'[1]Muse nosotros'!$H$10*3</f>
-        <v>591300</v>
-      </c>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="27">
-        <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>432963</v>
-      </c>
-      <c r="K17" s="28">
-        <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>548222.70000000007</v>
-      </c>
-      <c r="L17" s="29">
-        <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>620405.10000000009</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" s="2" customFormat="1" ht="94.5" thickBot="1">
-      <c r="B18" s="59" t="str">
-        <f>'[1]software licencia'!$D$8</f>
-        <v>MICROSOFT WINDOWS 10 PROFESIONAL A 64 BITS OEM FQC-08981</v>
-      </c>
-      <c r="C18" s="43">
-        <v>3</v>
-      </c>
-      <c r="D18" s="44">
-        <f>'[1]software licencia'!$H$8*3</f>
-        <v>3022200</v>
-      </c>
-      <c r="E18" s="44">
-        <f>'[1]software licencia'!$H$9*3</f>
-        <v>4204800</v>
-      </c>
-      <c r="F18" s="44">
-        <f>'[1]software licencia'!$H$10*3</f>
-        <v>5847300</v>
-      </c>
-      <c r="G18" s="44"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="27">
-        <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>3022200</v>
-      </c>
-      <c r="K18" s="8">
-        <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>4358100</v>
-      </c>
-      <c r="L18" s="14">
-        <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>5847300</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" s="2" customFormat="1" ht="57" thickBot="1">
-      <c r="B19" s="59" t="str">
-        <f>'[1]licencia visual'!$D$8</f>
-        <v>Licencia Visual Studio 2022 Enterprise</v>
-      </c>
-      <c r="C19" s="43">
-        <v>3</v>
-      </c>
-      <c r="D19" s="44">
-        <f>'[1]licencia visual'!$H$8*3</f>
-        <v>5116328.37</v>
-      </c>
-      <c r="E19" s="44">
-        <f>'[1]licencia visual'!$H$9*3</f>
-        <v>5116328.37</v>
-      </c>
-      <c r="F19" s="44">
-        <f>'[1]licencia visual'!$H$10*3</f>
-        <v>5116328.37</v>
-      </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="27">
-        <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>5116328.37</v>
-      </c>
-      <c r="K19" s="8">
-        <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>5116328.37</v>
-      </c>
-      <c r="L19" s="14">
-        <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>5116328.37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" s="2" customFormat="1" ht="75.75" thickBot="1">
-      <c r="B20" s="59" t="str">
-        <f>'[1]windows 11 licencia'!$D$8</f>
-        <v xml:space="preserve">Licencia Windows 11 Pro ESD Vitalicia
-</v>
-      </c>
-      <c r="C20" s="43">
-        <v>3</v>
-      </c>
-      <c r="D20" s="44">
-        <f>'[1]licencia visual'!$H$8*3</f>
-        <v>5116328.37</v>
-      </c>
-      <c r="E20" s="44">
-        <f>'[1]licencia visual'!$H$9*3</f>
-        <v>5116328.37</v>
-      </c>
-      <c r="F20" s="44">
-        <f>'[1]licencia visual'!$H$10*3</f>
-        <v>5116328.37</v>
-      </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="27">
-        <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>5116328.37</v>
-      </c>
-      <c r="K20" s="8">
-        <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>5116328.37</v>
-      </c>
-      <c r="L20" s="14">
-        <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>5116328.37</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" s="2" customFormat="1" ht="75.75" thickBot="1">
-      <c r="B21" s="59" t="str">
-        <f>'[1]licencia SQL'!$D$8</f>
-        <v>Licencia de dispositivo SQL Server 2022 - 1 CAL</v>
-      </c>
-      <c r="C21" s="43">
-        <v>3</v>
-      </c>
-      <c r="D21" s="44">
-        <f>'[1]licencia SQL'!$H$8*3</f>
-        <v>1741910.67</v>
-      </c>
-      <c r="E21" s="44">
-        <f>'[1]licencia SQL'!$H$9*3</f>
-        <v>8498952</v>
-      </c>
-      <c r="F21" s="44">
-        <f>'[1]windows 11 licencia'!$H$10*3</f>
-        <v>3531598.38</v>
-      </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="27">
-        <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>1741910.67</v>
-      </c>
-      <c r="K21" s="8">
-        <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>4590820.3500000006</v>
-      </c>
-      <c r="L21" s="14">
-        <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>8498952</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1">
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="27">
-        <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="8">
-        <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="14">
-        <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1">
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="27">
-        <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="8">
-        <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="14">
-        <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1">
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="27">
-        <f>MIN(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="8">
-        <f>IFERROR(AVERAGE(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]]),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="14">
-        <f>MAX(Comparación_precios24[[#This Row],[PROVEEDOR 1]:[PROVEEDOR 6]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" s="2" customFormat="1" ht="19.5" thickBot="1">
-      <c r="B25" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34">
-        <f>ROUND(SUMPRODUCT(Comparación_precios24[[CANTIDAD]:[CANTIDAD]],Comparación_precios24[PROVEEDOR 1]),2)</f>
-        <v>115851065.03</v>
-      </c>
-      <c r="E25" s="34">
-        <f>ROUND(SUMPRODUCT(Comparación_precios24[[CANTIDAD]:[CANTIDAD]],Comparación_precios24[PROVEEDOR 2]),2)</f>
-        <v>282008354.22000003</v>
-      </c>
-      <c r="F25" s="34">
-        <f>ROUND(SUMPRODUCT(Comparación_precios24[[CANTIDAD]:[CANTIDAD]],Comparación_precios24[PROVEEDOR 3]),2)</f>
-        <v>248436291.50999999</v>
-      </c>
-      <c r="G25" s="34">
-        <f>ROUND(SUMPRODUCT(Comparación_precios24[[CANTIDAD]:[CANTIDAD]],Comparación_precios24[PROVEEDOR 4]),2)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="34">
-        <f>ROUND(SUMPRODUCT(Comparación_precios24[[CANTIDAD]:[CANTIDAD]],Comparación_precios24[PROVEEDOR 5]),2)</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="34">
-        <f>ROUND(SUMPRODUCT(Comparación_precios24[[CANTIDAD]:[CANTIDAD]],Comparación_precios24[PROVEEDOR 6]),2)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="36"/>
-    </row>
-    <row r="26" spans="2:12" s="2" customFormat="1">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="2:12" s="2" customFormat="1" ht="13.5" thickBot="1">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="2:12" s="2" customFormat="1" ht="48.6" customHeight="1">
-      <c r="B28" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="86"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-    </row>
-    <row r="29" spans="2:12" s="2" customFormat="1" ht="33.6" customHeight="1">
-      <c r="B29" s="87" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="88"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-    </row>
-    <row r="30" spans="2:12" s="2" customFormat="1" ht="25.9" customHeight="1">
-      <c r="B30" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="88"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-    </row>
-    <row r="31" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B31" s="87" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="88"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-    </row>
-    <row r="32" spans="2:12" s="2" customFormat="1" ht="18.75">
-      <c r="B32" s="87"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-    </row>
-    <row r="33" spans="2:12" s="2" customFormat="1" ht="18.75">
-      <c r="B33" s="87"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-    </row>
-    <row r="34" spans="2:12" ht="18.75">
-      <c r="B34" s="87"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="2:12">
-      <c r="J35" s="3"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-    </row>
-    <row r="36" spans="2:12">
-      <c r="J36" s="3"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-    </row>
-    <row r="37" spans="2:12" ht="18.75">
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-    </row>
-    <row r="38" spans="2:12" ht="18.75">
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="37"/>
-    </row>
-    <row r="39" spans="2:12" ht="18.75">
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="37"/>
-    </row>
-    <row r="40" spans="2:12" ht="18.75">
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="37"/>
-    </row>
-    <row r="41" spans="2:12" ht="18.75">
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="37"/>
-    </row>
-    <row r="42" spans="2:12" ht="18.75">
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="37"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C34"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B8:C8">
-    <cfRule type="expression" dxfId="14" priority="1">
-      <formula>AND(B$25=MIN($D$25:$I$25),B$25&lt;&gt;0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:I8 D25:I25">
-    <cfRule type="expression" dxfId="13" priority="2">
-      <formula>AND(D$25=MIN($D$25:$I$25),D$25&lt;&gt;0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:I24">
-    <cfRule type="expression" dxfId="12" priority="3">
-      <formula>AND(D$25=MIN($D$25:$I$25),D$25&lt;&gt;0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B6:I41"/>
   <sheetViews>
@@ -6371,7 +4315,7 @@
     <row r="6" spans="2:9" ht="12" thickBot="1"/>
     <row r="7" spans="2:9" ht="19.5" thickBot="1">
       <c r="B7" s="45" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C7" s="46">
         <v>1</v>
@@ -6397,7 +4341,7 @@
     </row>
     <row r="8" spans="2:9" ht="19.5" thickBot="1">
       <c r="B8" s="45" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C8" s="46">
         <v>2</v>
@@ -6423,7 +4367,7 @@
     </row>
     <row r="9" spans="2:9" ht="19.5" thickBot="1">
       <c r="B9" s="45" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C9" s="46">
         <v>2</v>
@@ -6449,7 +4393,7 @@
     </row>
     <row r="10" spans="2:9" ht="19.5" thickBot="1">
       <c r="B10" s="45" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C10" s="46">
         <v>1</v>
@@ -6475,7 +4419,7 @@
     </row>
     <row r="11" spans="2:9" ht="19.5" thickBot="1">
       <c r="B11" s="45" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C11" s="46">
         <v>3</v>
@@ -6501,7 +4445,7 @@
     </row>
     <row r="12" spans="2:9" ht="19.5" thickBot="1">
       <c r="B12" s="45" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C12" s="46">
         <v>1</v>
@@ -6556,53 +4500,53 @@
         <v>10</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H20" s="22">
         <v>5</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="18.75">
       <c r="D21" s="49" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="18.75">
       <c r="D22" s="50" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="18.75">
@@ -6624,7 +4568,7 @@
     <row r="27" spans="2:9" ht="12" thickBot="1"/>
     <row r="28" spans="2:9" ht="19.5" thickBot="1">
       <c r="B28" s="45" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C28" s="46">
         <v>1</v>
@@ -6650,7 +4594,7 @@
     </row>
     <row r="29" spans="2:9" ht="19.5" thickBot="1">
       <c r="B29" s="45" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C29" s="46">
         <v>1</v>
@@ -6676,7 +4620,7 @@
     </row>
     <row r="30" spans="2:9" ht="19.5" thickBot="1">
       <c r="B30" s="45" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C30" s="46">
         <v>2</v>
@@ -6702,7 +4646,7 @@
     </row>
     <row r="35" spans="2:2" ht="14.25">
       <c r="B35" s="55" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="18.75">
